--- a/education/education-provider/src/main/webapp/templates/配货管理.xlsx
+++ b/education/education-provider/src/main/webapp/templates/配货管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16410" windowHeight="7245"/>
+    <workbookView windowWidth="16410" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="配货管理" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>配货号</t>
   </si>
@@ -191,7 +191,7 @@
     <t>生产日期</t>
   </si>
   <si>
-    <t>987</t>
+    <t>981</t>
   </si>
   <si>
     <t>2016.3.20</t>
@@ -218,10 +218,13 @@
     <t>2016.3.16</t>
   </si>
   <si>
+    <t>982</t>
+  </si>
+  <si>
     <t>奥尔良鸡腿</t>
   </si>
   <si>
-    <t>654</t>
+    <t>650</t>
   </si>
   <si>
     <t>红烧鸡腿</t>
@@ -234,6 +237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">导入说明：
 </t>
     </r>
@@ -241,6 +250,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1、红色为必填，黑色选填，尽量填完整！
@@ -280,12 +290,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,21 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -336,13 +332,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -350,16 +386,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,111 +425,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -489,25 +490,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,30 +664,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,120 +671,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,17 +684,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,39 +734,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,16 +759,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,159 +801,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1307,152 +1317,152 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28" style="5" customWidth="1"/>
-    <col min="7" max="8" width="9" style="5"/>
-    <col min="9" max="9" width="25.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="25.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="11">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11">
         <v>30</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>23</v>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1470,8 +1480,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1482,155 +1492,219 @@
   <sheetData>
     <row r="1" ht="93.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/education/education-provider/src/main/webapp/templates/配货管理.xlsx
+++ b/education/education-provider/src/main/webapp/templates/配货管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16410" windowHeight="7245" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="配货管理" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>配货号</t>
   </si>
@@ -197,13 +197,13 @@
     <t>2016.3.20</t>
   </si>
   <si>
-    <t>鸡胸肉</t>
-  </si>
-  <si>
-    <t>份</t>
-  </si>
-  <si>
-    <t>上海市市委机关第一幼儿园</t>
+    <t>菜</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>上海市龙阳路中学</t>
   </si>
   <si>
     <t>刘杰</t>
@@ -212,7 +212,7 @@
     <t>龙神餐饮</t>
   </si>
   <si>
-    <t>上海天坊食品有限公司</t>
+    <t>兴化工业</t>
   </si>
   <si>
     <t>2016.3.16</t>
@@ -221,13 +221,16 @@
     <t>982</t>
   </si>
   <si>
-    <t>奥尔良鸡腿</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>红烧鸡腿</t>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>双汇</t>
+  </si>
+  <si>
+    <t>6501</t>
+  </si>
+  <si>
+    <t>瓜</t>
   </si>
   <si>
     <t>张三</t>
@@ -258,6 +261,9 @@
     </r>
   </si>
   <si>
+    <t>必填项</t>
+  </si>
+  <si>
     <t>配货的日期，例：2016.3.5     必填项</t>
   </si>
   <si>
@@ -282,7 +288,7 @@
     <t>采购品的生产单位</t>
   </si>
   <si>
-    <t>采购品的生产日期，与生产批号必填一项。</t>
+    <t>采购品的生产日期</t>
   </si>
 </sst>
 </file>
@@ -290,9 +296,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -332,6 +338,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -355,37 +392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -490,6 +496,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,30 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,10 +807,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,7 +825,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -828,28 +834,28 @@
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,7 +867,7 @@
     <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,40 +897,40 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,11 +947,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1317,8 +1323,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1427,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>18</v>
@@ -1435,13 +1441,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11">
         <v>30</v>
@@ -1453,16 +1459,16 @@
         <v>14</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1478,10 +1484,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,164 +1498,161 @@
   <sheetData>
     <row r="1" ht="93.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="5"/>
@@ -1706,16 +1709,26 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/education/education-provider/src/main/webapp/templates/配货管理.xlsx
+++ b/education/education-provider/src/main/webapp/templates/配货管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13200"/>
+    <workbookView windowWidth="23415" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="配货管理" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>配货号</t>
   </si>
@@ -191,52 +191,61 @@
     <t>生产日期</t>
   </si>
   <si>
-    <t>981</t>
+    <t>987</t>
+  </si>
+  <si>
+    <t>2016.3.22</t>
+  </si>
+  <si>
+    <t>菜菜</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>斤</t>
+  </si>
+  <si>
+    <t>上海市莘庄中学</t>
+  </si>
+  <si>
+    <t>杨刚</t>
+  </si>
+  <si>
+    <t>双汇食品有限公司</t>
+  </si>
+  <si>
+    <t>兴化工业</t>
+  </si>
+  <si>
+    <t>2016.3.16</t>
+  </si>
+  <si>
+    <t>肉肉</t>
+  </si>
+  <si>
+    <t>双汇</t>
+  </si>
+  <si>
+    <t>6507</t>
   </si>
   <si>
     <t>2016.3.20</t>
   </si>
   <si>
-    <t>菜</t>
-  </si>
-  <si>
-    <t>斤</t>
-  </si>
-  <si>
-    <t>上海市龙阳路中学</t>
-  </si>
-  <si>
-    <t>刘杰</t>
+    <t>瓜瓜</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>艺龙食品有限公司</t>
   </si>
   <si>
     <t>龙神餐饮</t>
   </si>
   <si>
-    <t>兴化工业</t>
-  </si>
-  <si>
-    <t>2016.3.16</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>双汇</t>
-  </si>
-  <si>
-    <t>6501</t>
-  </si>
-  <si>
-    <t>瓜</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>2016.6.17</t>
+    <t>2016.3.17</t>
   </si>
   <si>
     <r>
@@ -296,15 +305,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,10 +350,101 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -347,33 +454,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,90 +470,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,187 +519,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,6 +710,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -714,32 +782,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,39 +810,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -795,10 +818,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,137 +830,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +976,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -962,16 +988,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1324,151 +1353,151 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9" style="7"/>
-    <col min="9" max="9" width="25.5" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28" style="8" customWidth="1"/>
+    <col min="7" max="8" width="9" style="8"/>
+    <col min="9" max="9" width="25.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="D3" s="12">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="I3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="11">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>25</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1516,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1498,7 +1527,7 @@
   <sheetData>
     <row r="1" ht="93.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -1507,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
@@ -1515,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1531,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1547,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1563,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1579,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1595,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1610,8 +1639,8 @@
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1626,8 +1655,8 @@
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1643,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1655,70 +1684,70 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/education/education-provider/src/main/webapp/templates/配货管理.xlsx
+++ b/education/education-provider/src/main/webapp/templates/配货管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23415" windowHeight="11070"/>
+    <workbookView windowWidth="19440" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="配货管理" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">导入时，采购品名称必须在采购品管理内存档，如果没有存档，上传失败。   必填项</t>
+          <t xml:space="preserve">导入时，原料名称必须在原料管理内存档，如果没有存档，上传失败。   必填项</t>
         </r>
       </text>
     </comment>
@@ -70,7 +70,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">规格与采购品管理的规格保持一致.  例：斤、个、箱、     必填项</t>
+          <t xml:space="preserve">数量单位与原料管理的数量单位保持一致.  例：斤、个、箱、     必填项</t>
         </r>
       </text>
     </comment>
@@ -83,7 +83,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">采购品的数量     必填项</t>
+          <t xml:space="preserve">原料的数量     必填项</t>
         </r>
       </text>
     </comment>
@@ -123,7 +123,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">采购品的供应商</t>
+          <t xml:space="preserve">原料的提供者</t>
         </r>
       </text>
     </comment>
@@ -136,7 +136,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">采购品的生产单位
+          <t xml:space="preserve">原料的生产单位
 </t>
         </r>
       </text>
@@ -150,7 +150,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">采购品的生产日期，与生产批号必填一项。</t>
+          <t xml:space="preserve">原料的生产日期，与生产批号必填一项。</t>
         </r>
       </text>
     </comment>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>配货号</t>
   </si>
@@ -167,13 +167,13 @@
     <t>配货日期</t>
   </si>
   <si>
-    <t>采购品名称</t>
+    <t>原料名称</t>
   </si>
   <si>
     <t>数量</t>
   </si>
   <si>
-    <t>规格</t>
+    <t>数量单位</t>
   </si>
   <si>
     <t>配货点</t>
@@ -182,7 +182,7 @@
     <t>驾驶员</t>
   </si>
   <si>
-    <t>供应商名称</t>
+    <t>原料供货者</t>
   </si>
   <si>
     <t>生产单位</t>
@@ -197,13 +197,13 @@
     <t>2016.3.22</t>
   </si>
   <si>
-    <t>菜菜</t>
+    <t>菜菜菜</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>斤</t>
+    <t>吨</t>
   </si>
   <si>
     <t>上海市莘庄中学</t>
@@ -221,7 +221,7 @@
     <t>2016.3.16</t>
   </si>
   <si>
-    <t>肉肉</t>
+    <t>肉肉肉</t>
   </si>
   <si>
     <t>双汇</t>
@@ -233,7 +233,10 @@
     <t>2016.3.20</t>
   </si>
   <si>
-    <t>瓜瓜</t>
+    <t>瓜瓜瓜</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>张三</t>
@@ -276,13 +279,13 @@
     <t>配货的日期，例：2016.3.5     必填项</t>
   </si>
   <si>
-    <t>导入时，采购品名称必须在采购品管理内存档，如果没有存档，上传失败。   必填项</t>
-  </si>
-  <si>
-    <t>采购品的数量     必填项</t>
-  </si>
-  <si>
-    <t>规格与采购品管理的规格保持一致.  例：斤、个、箱、     必填项</t>
+    <t>导入时，原料名称必须在原料管理内存档，如果没有存档，上传失败。   必填项</t>
+  </si>
+  <si>
+    <t>原料的数量     必填项</t>
+  </si>
+  <si>
+    <t>数量单位与原料管理的数量单位保持一致.  例：斤、个、箱、     必填项</t>
   </si>
   <si>
     <t>配货点必须在配货点管理内存档，如果没有存档，上传失败。    必填项</t>
@@ -291,13 +294,13 @@
     <t>驾驶员姓名</t>
   </si>
   <si>
-    <t>采购品的供应商</t>
-  </si>
-  <si>
-    <t>采购品的生产单位</t>
-  </si>
-  <si>
-    <t>采购品的生产日期</t>
+    <t>原料的供货者</t>
+  </si>
+  <si>
+    <t>原料的生产单位</t>
+  </si>
+  <si>
+    <t>原料的生产日期</t>
   </si>
 </sst>
 </file>
@@ -310,17 +313,10 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -361,6 +357,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -376,7 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,45 +412,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,14 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -462,10 +442,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,168 +515,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,12 +696,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,6 +724,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -739,6 +744,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,26 +790,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,10 +814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -830,137 +826,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -988,19 +984,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1353,7 +1352,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1391,10 +1390,10 @@
       <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
@@ -1405,28 +1404,28 @@
       <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -1437,31 +1436,31 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12">
-        <v>20</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -1475,29 +1474,29 @@
       <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1515,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1527,7 +1526,7 @@
   <sheetData>
     <row r="1" ht="93.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -1536,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
@@ -1544,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1560,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1576,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1592,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1608,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1624,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1640,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1656,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1672,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>

--- a/education/education-provider/src/main/webapp/templates/配货管理.xlsx
+++ b/education/education-provider/src/main/webapp/templates/配货管理.xlsx
@@ -61,19 +61,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">数量单位与原料管理的数量单位保持一致.  例：斤、个、箱、     必填项</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -84,6 +71,19 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">原料的数量     必填项</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">填写的数量单位与系统内已存档原料的数量单位保持一致.  例：斤、个、箱、     必填项</t>
         </r>
       </text>
     </comment>
@@ -123,7 +123,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">原料的提供者</t>
+          <t xml:space="preserve">供货者必须在供货者管理内存档，如果没有存档，上传失败。    必填项</t>
         </r>
       </text>
     </comment>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>配货号</t>
   </si>
@@ -191,19 +191,19 @@
     <t>生产日期</t>
   </si>
   <si>
-    <t>987</t>
+    <t>75947</t>
   </si>
   <si>
     <t>2016.3.22</t>
   </si>
   <si>
-    <t>菜菜菜</t>
+    <t>白菜</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>吨</t>
+    <t>斤</t>
   </si>
   <si>
     <t>上海市莘庄中学</t>
@@ -221,22 +221,25 @@
     <t>2016.3.16</t>
   </si>
   <si>
-    <t>肉肉肉</t>
+    <t>猪肉</t>
   </si>
   <si>
     <t>双汇</t>
   </si>
   <si>
-    <t>6507</t>
+    <t>75948</t>
   </si>
   <si>
     <t>2016.3.20</t>
   </si>
   <si>
-    <t>瓜瓜瓜</t>
+    <t>牛奶</t>
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>箱</t>
   </si>
   <si>
     <t>张三</t>
@@ -269,32 +272,32 @@
         <charset val="134"/>
       </rPr>
       <t>1、红色为必填，黑色选填，尽量填完整！
-2、导入为一次性，如果日常有新增可以到系统中手工增加，也可以通过表格导入，请注意，系统中已存在的不允许再导入，同一导入文件中也不能有重复记录；</t>
+2、导入为一次性，如果日常有新增可以到系统中手工增加，也可以通过表格导入。</t>
     </r>
   </si>
   <si>
-    <t>必填项</t>
+    <t>配货号 配货的批次    必填项</t>
   </si>
   <si>
     <t>配货的日期，例：2016.3.5     必填项</t>
   </si>
   <si>
-    <t>导入时，原料名称必须在原料管理内存档，如果没有存档，上传失败。   必填项</t>
+    <t>导入时，原料名称必须在系统内存档，如果没有存档，上传失败。   必填项</t>
   </si>
   <si>
     <t>原料的数量     必填项</t>
   </si>
   <si>
-    <t>数量单位与原料管理的数量单位保持一致.  例：斤、个、箱、     必填项</t>
-  </si>
-  <si>
-    <t>配货点必须在配货点管理内存档，如果没有存档，上传失败。    必填项</t>
+    <t>填写的数量单位与系统内已存档原料的数量单位保持一致.  例：斤、个、箱、     必填项</t>
+  </si>
+  <si>
+    <t>配货点必须在系统内存档，如果没有存档，上传失败。    必填项</t>
   </si>
   <si>
     <t>驾驶员姓名</t>
   </si>
   <si>
-    <t>原料的供货者</t>
+    <t>供货者必须在系统内存档，如果没有存档，上传失败。    必填项</t>
   </si>
   <si>
     <t>原料的生产单位</t>
@@ -308,12 +311,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,7 +326,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -338,36 +361,27 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,26 +396,117 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -409,9 +514,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,75 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -515,12 +551,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,31 +599,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,25 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,78 +713,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,12 +732,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +742,44 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -720,15 +794,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,11 +813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,239 +842,216 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1352,151 +1400,151 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="28" style="8" customWidth="1"/>
-    <col min="7" max="8" width="9" style="8"/>
-    <col min="9" max="9" width="25.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28" style="12" customWidth="1"/>
+    <col min="7" max="8" width="9" style="12"/>
+    <col min="9" max="9" width="25.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="11" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="16" t="s">
         <v>29</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1512,10 +1560,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,230 +1574,340 @@
   <sheetData>
     <row r="1" ht="93.75" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="17">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
@@ -1757,6 +1915,16 @@
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="B17:J17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
